--- a/заказы/филиалы и опт/2024/03,24/12,03,24 Ост СЫР филиалы/Заказ 13,03,24 (откорректирован).xlsx
+++ b/заказы/филиалы и опт/2024/03,24/12,03,24 Ост СЫР филиалы/Заказ 13,03,24 (откорректирован).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\12,03,24 Ост СЫР филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2024\03,24\12,03,24 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D802703A-0AAF-4727-BFF4-18E0E0144965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0A6432-55BC-4FC0-A999-2D80ABD56DD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -972,7 +972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
